--- a/src/main/resources/static/vipAddTemplate.xlsx
+++ b/src/main/resources/static/vipAddTemplate.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChromeDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D464EE76-420A-4919-A4DF-A546A49C11C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E276B-D2BF-43BB-921E-677522BCCBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -30,43 +30,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>会员信息表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>会员类型</t>
+  </si>
+  <si>
+    <t>会员姓名</t>
+  </si>
+  <si>
+    <t>会员密码</t>
+  </si>
+  <si>
+    <t>会员电话</t>
+  </si>
+  <si>
+    <t>会员性别</t>
+  </si>
+  <si>
+    <t>会员生日</t>
+  </si>
+  <si>
+    <t>开卡时间</t>
+  </si>
+  <si>
+    <t>会员卡金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>会员ID</t>
-  </si>
-  <si>
-    <t>会员类型</t>
-  </si>
-  <si>
-    <t>会员姓名</t>
-  </si>
-  <si>
-    <t>会员密码</t>
-  </si>
-  <si>
-    <t>会员电话</t>
-  </si>
-  <si>
-    <t>会员性别</t>
-  </si>
-  <si>
-    <t>会员生日</t>
-  </si>
-  <si>
-    <t>开卡时间</t>
-  </si>
-  <si>
-    <t>会员卡金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -75,6 +77,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -87,7 +95,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,16 +110,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,24 +129,33 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,19 +469,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -475,37 +495,125 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
